--- a/dns.xlsx
+++ b/dns.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryankavanaugh/Desktop/DNS Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryankavanaugh/Desktop/DNStest/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1760" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="-19900" yWindow="6960" windowWidth="19600" windowHeight="16780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="116">
   <si>
     <t>Domain Name</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>maps.googleapis.com</t>
+  </si>
+  <si>
+    <t>googleapis</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -843,8 +846,8 @@
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
+      <c r="C9" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="D9" s="4">
         <v>157</v>
@@ -857,8 +860,8 @@
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
+      <c r="C10" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="D10" s="4">
         <v>157</v>
@@ -913,7 +916,7 @@
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="4">
